--- a/myblog_API_명세서.xlsx
+++ b/myblog_API_명세서.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\khs13\OneDrive\Desktop\sparta\myblog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{137E18D5-1942-4B9D-A767-4655E0231E78}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2165A355-C307-4A3B-A648-F0F322F819B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="15" windowWidth="29040" windowHeight="15840" xr2:uid="{24E7FC0A-720E-4CB6-A680-868C5A08DF6A}"/>
+    <workbookView xWindow="6840" yWindow="1260" windowWidth="21600" windowHeight="11385" xr2:uid="{24E7FC0A-720E-4CB6-A680-868C5A08DF6A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="27">
   <si>
     <t>Index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -88,6 +88,50 @@
   </si>
   <si>
     <t>/api/post/{id}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/user/register</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/user/login</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/auth/post</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/auth/post/{id}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/auth/comment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/auth/comment/{id}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>댓글 작성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>댓글 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>댓글 삭제</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -470,10 +514,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{464A9305-3812-4BB4-A8BC-B83BE32CB898}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D7"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -519,7 +563,7 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
@@ -561,7 +605,7 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D6" t="s">
         <v>13</v>
@@ -575,10 +619,80 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D7" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
